--- a/HW2/part_4/results/eo_pdc_20_louvain.xlsx
+++ b/HW2/part_4/results/eo_pdc_20_louvain.xlsx
@@ -22,19 +22,19 @@
     <t>members</t>
   </si>
   <si>
-    <t>['Fc5', 'Fc3', 'Fcz', 'C5', 'Afz', 'F5', 'F3', 'F1', 'Fz', 'Ft7', 'T7', 'T9', 'Tp7', 'Poz']</t>
-  </si>
-  <si>
-    <t>['Fc1', 'Cz', 'Fp1', 'Fpz', 'Fp2', 'Af7', 'Af3', 'Af4', 'Af8', 'F7', 'T10', 'O1', 'Iz']</t>
-  </si>
-  <si>
-    <t>['Fc2', 'Fc4', 'Fc6', 'C2', 'F2', 'F4', 'F6', 'F8', 'Ft8', 'Oz']</t>
+    <t>['Fc5', 'Fc3', 'C5', 'F7', 'F5', 'F3', 'Ft7', 'T7', 'T9', 'Tp7']</t>
+  </si>
+  <si>
+    <t>['Fc1', 'Fp1', 'Fpz', 'Fp2', 'Af7', 'Af3', 'Af4', 'Af8', 'T10', 'O1', 'O2', 'Iz']</t>
+  </si>
+  <si>
+    <t>['Fcz', 'Fc2', 'Cz', 'Afz', 'F1', 'Fz', 'F2', 'Poz']</t>
+  </si>
+  <si>
+    <t>['Fc4', 'Fc6', 'C2', 'C4', 'C6', 'Cp2', 'Cp4', 'Cp6', 'F4', 'F6', 'F8', 'Ft8', 'T8', 'Tp8', 'P2', 'P4', 'P6', 'P8', 'Po4', 'Po8', 'Oz']</t>
   </si>
   <si>
     <t>['C3', 'C1', 'Cp5', 'Cp3', 'Cp1', 'Cpz', 'P7', 'P5', 'P3', 'P1', 'Pz', 'Po7', 'Po3']</t>
-  </si>
-  <si>
-    <t>['C4', 'C6', 'Cp2', 'Cp4', 'Cp6', 'T8', 'Tp8', 'P2', 'P4', 'P6', 'P8', 'Po4', 'Po8', 'O2']</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -444,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>

--- a/HW2/part_4/results/eo_pdc_20_louvain.xlsx
+++ b/HW2/part_4/results/eo_pdc_20_louvain.xlsx
@@ -22,19 +22,19 @@
     <t>members</t>
   </si>
   <si>
-    <t>['Fc5', 'Fc3', 'C5', 'F7', 'F5', 'F3', 'Ft7', 'T7', 'T9', 'Tp7']</t>
-  </si>
-  <si>
-    <t>['Fc1', 'Fp1', 'Fpz', 'Fp2', 'Af7', 'Af3', 'Af4', 'Af8', 'T10', 'O1', 'O2', 'Iz']</t>
+    <t>['Fc5', 'Fc3', 'Fc1', 'C5', 'Fp1', 'Fpz', 'Fp2', 'Af7', 'Af3', 'Af4', 'Af8', 'F7', 'F5', 'F3', 'Ft7', 'T7', 'T9', 'T10', 'Tp7']</t>
   </si>
   <si>
     <t>['Fcz', 'Fc2', 'Cz', 'Afz', 'F1', 'Fz', 'F2', 'Poz']</t>
   </si>
   <si>
-    <t>['Fc4', 'Fc6', 'C2', 'C4', 'C6', 'Cp2', 'Cp4', 'Cp6', 'F4', 'F6', 'F8', 'Ft8', 'T8', 'Tp8', 'P2', 'P4', 'P6', 'P8', 'Po4', 'Po8', 'Oz']</t>
+    <t>['Fc4', 'Fc6', 'C2', 'C6', 'F4', 'F6', 'F8', 'Ft8', 'T8', 'O1', 'Oz', 'O2', 'Iz']</t>
   </si>
   <si>
     <t>['C3', 'C1', 'Cp5', 'Cp3', 'Cp1', 'Cpz', 'P7', 'P5', 'P3', 'P1', 'Pz', 'Po7', 'Po3']</t>
+  </si>
+  <si>
+    <t>['C4', 'Cp2', 'Cp4', 'Cp6', 'Tp8', 'P2', 'P4', 'P6', 'P8', 'Po4', 'Po8']</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -422,7 +422,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -433,7 +433,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -444,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -455,7 +455,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
